--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Reln</t>
   </si>
   <si>
     <t>Itga3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05950533333333333</v>
+        <v>0.06455366666666666</v>
       </c>
       <c r="H2">
-        <v>0.178516</v>
+        <v>0.193661</v>
       </c>
       <c r="I2">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="J2">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N2">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q2">
-        <v>0.355305928796</v>
+        <v>0.8782094485969999</v>
       </c>
       <c r="R2">
-        <v>3.197753359164</v>
+        <v>7.903885037373</v>
       </c>
       <c r="S2">
-        <v>0.01110480769996898</v>
+        <v>0.01100837809116125</v>
       </c>
       <c r="T2">
-        <v>0.01110480769996898</v>
+        <v>0.01100837809116125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05950533333333333</v>
+        <v>0.06455366666666666</v>
       </c>
       <c r="H3">
-        <v>0.178516</v>
+        <v>0.193661</v>
       </c>
       <c r="I3">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="J3">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.185244</v>
       </c>
       <c r="O3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q3">
-        <v>0.063179668656</v>
+        <v>0.06853972647599998</v>
       </c>
       <c r="R3">
-        <v>0.568617017904</v>
+        <v>0.616857538284</v>
       </c>
       <c r="S3">
-        <v>0.001974630914125451</v>
+        <v>0.000859147239326526</v>
       </c>
       <c r="T3">
-        <v>0.001974630914125451</v>
+        <v>0.0008591472393265264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05950533333333333</v>
+        <v>0.06455366666666666</v>
       </c>
       <c r="H4">
-        <v>0.178516</v>
+        <v>0.193661</v>
       </c>
       <c r="I4">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="J4">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N4">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q4">
-        <v>0.1568118858742222</v>
+        <v>0.1288343573948889</v>
       </c>
       <c r="R4">
-        <v>1.411306972868</v>
+        <v>1.159509216554</v>
       </c>
       <c r="S4">
-        <v>0.0049010323120798</v>
+        <v>0.001614941993166319</v>
       </c>
       <c r="T4">
-        <v>0.004901032312079799</v>
+        <v>0.00161494199316632</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.06455366666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.193661</v>
+      </c>
+      <c r="I5">
+        <v>0.01357839286814829</v>
+      </c>
+      <c r="J5">
+        <v>0.01357839286814829</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.05950533333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.178516</v>
-      </c>
-      <c r="I5">
-        <v>0.01803537323915772</v>
-      </c>
-      <c r="J5">
-        <v>0.01803537323915772</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N5">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O5">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P5">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q5">
-        <v>0.001756637110222222</v>
+        <v>0.007652600486555556</v>
       </c>
       <c r="R5">
-        <v>0.015809733992</v>
+        <v>0.06887340437900001</v>
       </c>
       <c r="S5">
-        <v>5.49023129834883E-05</v>
+        <v>9.592554449418834E-05</v>
       </c>
       <c r="T5">
-        <v>5.490231298348829E-05</v>
+        <v>9.592554449418836E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H6">
         <v>0.182541</v>
       </c>
       <c r="I6">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J6">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N6">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q6">
-        <v>0.363317011071</v>
+        <v>0.8277827283570001</v>
       </c>
       <c r="R6">
-        <v>3.269853099639</v>
+        <v>7.450044555213</v>
       </c>
       <c r="S6">
-        <v>0.01135518778350421</v>
+        <v>0.01037627785221943</v>
       </c>
       <c r="T6">
-        <v>0.01135518778350421</v>
+        <v>0.01037627785221943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H7">
         <v>0.182541</v>
       </c>
       <c r="I7">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J7">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.185244</v>
       </c>
       <c r="O7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q7">
-        <v>0.06460418055599998</v>
+        <v>0.06460418055600001</v>
       </c>
       <c r="R7">
         <v>0.581437625004</v>
       </c>
       <c r="S7">
-        <v>0.002019152914558773</v>
+        <v>0.0008098150697037784</v>
       </c>
       <c r="T7">
-        <v>0.002019152914558773</v>
+        <v>0.0008098150697037784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H8">
         <v>0.182541</v>
       </c>
       <c r="I8">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J8">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N8">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q8">
-        <v>0.1603475232436666</v>
+        <v>0.1214366983193333</v>
       </c>
       <c r="R8">
-        <v>1.443127709193</v>
+        <v>1.092930284874</v>
       </c>
       <c r="S8">
-        <v>0.005011535880701778</v>
+        <v>0.00152221214583511</v>
       </c>
       <c r="T8">
-        <v>0.005011535880701777</v>
+        <v>0.00152221214583511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H9">
         <v>0.182541</v>
       </c>
       <c r="I9">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J9">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N9">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O9">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P9">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q9">
-        <v>0.001796244004666666</v>
+        <v>0.007213188744333335</v>
       </c>
       <c r="R9">
-        <v>0.016166196042</v>
+        <v>0.06491869869900001</v>
       </c>
       <c r="S9">
-        <v>5.61401953568248E-05</v>
+        <v>9.04175069710145E-05</v>
       </c>
       <c r="T9">
-        <v>5.614019535682479E-05</v>
+        <v>9.041750697101448E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.179015666666666</v>
+        <v>4.62452</v>
       </c>
       <c r="H10">
-        <v>9.537046999999999</v>
+        <v>13.87356</v>
       </c>
       <c r="I10">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="J10">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N10">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q10">
-        <v>18.981880292557</v>
+        <v>62.91350079612</v>
       </c>
       <c r="R10">
-        <v>170.836922633013</v>
+        <v>566.22150716508</v>
       </c>
       <c r="S10">
-        <v>0.5932637576495445</v>
+        <v>0.7886223553033967</v>
       </c>
       <c r="T10">
-        <v>0.5932637576495445</v>
+        <v>0.7886223553033969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.179015666666666</v>
+        <v>4.62452</v>
       </c>
       <c r="H11">
-        <v>9.537046999999999</v>
+        <v>13.87356</v>
       </c>
       <c r="I11">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="J11">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.185244</v>
       </c>
       <c r="O11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q11">
-        <v>3.375313526052</v>
+        <v>4.910074860959999</v>
       </c>
       <c r="R11">
-        <v>30.377821734468</v>
+        <v>44.19067374863999</v>
       </c>
       <c r="S11">
-        <v>0.1054927728364258</v>
+        <v>0.06154791503519511</v>
       </c>
       <c r="T11">
-        <v>0.1054927728364258</v>
+        <v>0.06154791503519512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.179015666666666</v>
+        <v>4.62452</v>
       </c>
       <c r="H12">
-        <v>9.537046999999999</v>
+        <v>13.87356</v>
       </c>
       <c r="I12">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="J12">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N12">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q12">
-        <v>8.377525408036776</v>
+        <v>9.229484446426664</v>
       </c>
       <c r="R12">
-        <v>75.397728672331</v>
+        <v>83.06536001783999</v>
       </c>
       <c r="S12">
-        <v>0.2618329758051027</v>
+        <v>0.1156918256061495</v>
       </c>
       <c r="T12">
-        <v>0.2618329758051027</v>
+        <v>0.1156918256061495</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.62452</v>
+      </c>
+      <c r="H13">
+        <v>13.87356</v>
+      </c>
+      <c r="I13">
+        <v>0.9727340463997778</v>
+      </c>
+      <c r="J13">
+        <v>0.9727340463997778</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1185463333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.355639</v>
+      </c>
+      <c r="O13">
+        <v>0.007064572768343379</v>
+      </c>
+      <c r="P13">
+        <v>0.007064572768343379</v>
+      </c>
+      <c r="Q13">
+        <v>0.5482198894266667</v>
+      </c>
+      <c r="R13">
+        <v>4.93397900484</v>
+      </c>
+      <c r="S13">
+        <v>0.006871950455036335</v>
+      </c>
+      <c r="T13">
+        <v>0.006871950455036335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.179015666666666</v>
-      </c>
-      <c r="H13">
-        <v>9.537046999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.9635226099867207</v>
-      </c>
-      <c r="J13">
-        <v>0.9635226099867207</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.02952066666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.088562</v>
-      </c>
-      <c r="O13">
-        <v>0.003044146203987976</v>
-      </c>
-      <c r="P13">
-        <v>0.003044146203987975</v>
-      </c>
-      <c r="Q13">
-        <v>0.09384666182377778</v>
-      </c>
-      <c r="R13">
-        <v>0.844619956414</v>
-      </c>
-      <c r="S13">
-        <v>0.002933103695647663</v>
-      </c>
-      <c r="T13">
-        <v>0.002933103695647662</v>
+      <c r="G14">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.012677</v>
+      </c>
+      <c r="I14">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J14">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.604331</v>
+      </c>
+      <c r="N14">
+        <v>40.812993</v>
+      </c>
+      <c r="O14">
+        <v>0.8107276168878804</v>
+      </c>
+      <c r="P14">
+        <v>0.8107276168878805</v>
+      </c>
+      <c r="Q14">
+        <v>0.057487368029</v>
+      </c>
+      <c r="R14">
+        <v>0.5173863122610001</v>
+      </c>
+      <c r="S14">
+        <v>0.0007206056411030162</v>
+      </c>
+      <c r="T14">
+        <v>0.0007206056411030163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.012677</v>
+      </c>
+      <c r="I15">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J15">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.061748</v>
+      </c>
+      <c r="N15">
+        <v>3.185244</v>
+      </c>
+      <c r="O15">
+        <v>0.06327311690486458</v>
+      </c>
+      <c r="P15">
+        <v>0.06327311690486459</v>
+      </c>
+      <c r="Q15">
+        <v>0.004486593132</v>
+      </c>
+      <c r="R15">
+        <v>0.04037933818800001</v>
+      </c>
+      <c r="S15">
+        <v>5.623956063917036E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.623956063917038E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.012677</v>
+      </c>
+      <c r="I16">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J16">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.995771333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.987314</v>
+      </c>
+      <c r="O16">
+        <v>0.1189346934389115</v>
+      </c>
+      <c r="P16">
+        <v>0.1189346934389116</v>
+      </c>
+      <c r="Q16">
+        <v>0.008433464397555554</v>
+      </c>
+      <c r="R16">
+        <v>0.07590117957799999</v>
+      </c>
+      <c r="S16">
+        <v>0.000105713693760589</v>
+      </c>
+      <c r="T16">
+        <v>0.0001057136937605891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.012677</v>
+      </c>
+      <c r="I17">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J17">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1185463333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.355639</v>
+      </c>
+      <c r="O17">
+        <v>0.007064572768343379</v>
+      </c>
+      <c r="P17">
+        <v>0.007064572768343379</v>
+      </c>
+      <c r="Q17">
+        <v>0.0005009372892222223</v>
+      </c>
+      <c r="R17">
+        <v>0.004508435603</v>
+      </c>
+      <c r="S17">
+        <v>6.279261841841289E-06</v>
+      </c>
+      <c r="T17">
+        <v>6.279261841841289E-06</v>
       </c>
     </row>
   </sheetData>
